--- a/VehicleValuation/Features/FilePath.xlsx
+++ b/VehicleValuation/Features/FilePath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sri\Developer\Source\repo\VehicleRegistration\VehicleValuation\VehicleValuation\Features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E806487F-BE72-4AFA-B91A-676053D6C1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DA83FBF7-1969-4B97-9D79-AB1998F5D3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{0C7E9C25-67CA-4A73-B1A7-95417F269490}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="4" uniqueCount="4">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6" uniqueCount="5">
   <si>
     <t>InputFilePath</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>‪C:\Users\srila\OneDrive\Desktop\InputFile.tx</t>
+  </si>
+  <si>
+    <t>"C:\Users\srila\OneDrive\Desktop\OutputFile.txt</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -444,6 +451,12 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
